--- a/Documents/TREES-inputs&outputs-2020.xlsx
+++ b/Documents/TREES-inputs&outputs-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsmackay/Documents/research/projects/TREES-workshop-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6347788-662B-0440-8FDC-8FB109B4902A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8187D69E-41C3-014A-AE53-8CEFC399CEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45640" yWindow="-2580" windowWidth="34780" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_drivers (.txt)" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="798">
   <si>
     <t>latitude</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>useInputStress,</t>
-  </si>
-  <si>
-    <t>useRefilling,</t>
   </si>
   <si>
     <t>dayToStopMaizeRefilling,</t>
@@ -2617,6 +2614,21 @@
   </si>
   <si>
     <t>mm 30min-1</t>
+  </si>
+  <si>
+    <t>interception_per_leafArea</t>
+  </si>
+  <si>
+    <t>m m-2 m2</t>
+  </si>
+  <si>
+    <t>Interception of precipitation by canopy leaves on a per unit leaf area basis</t>
+  </si>
+  <si>
+    <t>0.00025 typical for conifers</t>
+  </si>
+  <si>
+    <t>useInputWaterTable</t>
   </si>
 </sst>
 </file>
@@ -3621,7 +3633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09411C91-A961-AB40-A110-75A8D6943A72}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+    <sheetView zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3635,260 +3647,260 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>760</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>762</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>764</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>766</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>772</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>774</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>793</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="C21" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="C22" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -3898,16 +3910,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" style="3" customWidth="1"/>
@@ -3918,881 +3930,881 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B2" s="3">
         <v>550</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B3" s="3">
         <v>47.438000000000002</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B4" s="3">
         <v>7.7770000000000001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B5" s="3">
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B6" s="3">
         <v>4.8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B8" s="3">
         <v>4.8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B10" s="3">
         <v>0.97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B11" s="3">
         <v>0.5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B12" s="3">
         <v>0.5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B13" s="3">
         <v>0.92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B14" s="3">
         <v>0.2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B15" s="3">
         <v>0.5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B16" s="3">
         <v>1.5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B17" s="3">
         <v>0.67</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B18" s="3">
         <v>0.1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B19" s="3">
         <v>0.2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B21" s="3">
         <v>0.01</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B22" s="8">
         <v>1.85</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B23" s="3">
         <v>0.8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B24" s="3">
         <v>0.3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B25" s="3">
         <v>0.3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B26" s="8">
         <v>1E-3</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B27" s="8">
         <v>0</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B28" s="8">
         <v>0.16</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B29" s="3">
         <v>38.677639999999997</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B30" s="3">
         <v>2.1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B31" s="3">
         <v>26123.26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B32" s="3">
         <v>1.2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B33" s="3">
         <v>3.6</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B34" s="3">
         <v>2.4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B35" s="9">
         <v>30</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B36" s="9">
         <v>460</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B37" s="9">
         <v>50</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B38" s="3">
         <v>38.6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>24</v>
@@ -4801,1127 +4813,1127 @@
         <v>27</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B39" s="10">
         <v>80</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B40" s="10">
         <v>80</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B41" s="9">
         <v>0</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B42" s="9">
         <v>0.4</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B43" s="9">
         <v>0.92</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B44" s="9">
         <v>56</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B45" s="10">
         <v>70.373000000000005</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B46" s="9">
         <v>40</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B47" s="10">
         <v>36.299999999999997</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B48" s="9">
         <v>59.36</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B49" s="9">
         <v>35.94</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B50" s="9">
         <v>66.3</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B51" s="9">
         <v>23.4</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B52" s="9">
         <v>1.78</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B53" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B54" s="12">
         <v>0.09</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B55" s="12">
         <v>0.38</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B56" s="12">
         <v>1.5</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B57" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B58" s="3">
         <v>0.59</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B60" s="3">
         <v>-0.05</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B61" s="3">
         <v>-1.37</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B62" s="3">
         <v>1.52</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B63" s="3">
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B64" s="3">
         <v>4</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B65" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B66" s="3">
         <v>18</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B67" s="3">
         <v>0.76</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="E67" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B68" s="3">
         <v>0.71</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B69" s="3">
         <v>0.3</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B70" s="3">
         <v>0.4</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B71" s="3">
         <v>0.04</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B73" s="3">
         <v>0.01</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B76" s="3">
         <v>50</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B77" s="3">
         <v>-0.45</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B78" s="3">
         <v>3.8424700000000001</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B79" s="3">
         <v>6.4333299999999998</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B80" s="3">
         <v>3.8424700000000001</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B81" s="3">
         <v>6.4333299999999998</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B82" s="3">
         <v>3.8424700000000001</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B83" s="3">
         <v>6.4333299999999998</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B84" s="3">
         <v>3.8424700000000001</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B85" s="3">
         <v>6.4333299999999998</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B86" s="3">
         <v>30</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>47</v>
@@ -5930,21 +5942,21 @@
         <v>70</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B87" s="3">
         <v>0.02</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>72</v>
@@ -5953,18 +5965,18 @@
         <v>71</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B88" s="3">
         <v>50</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>47</v>
@@ -5973,167 +5985,167 @@
         <v>73</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B89" s="3">
         <v>0.03</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B90" s="3">
         <v>0.22</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B91" s="3">
         <v>30</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B93" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B94" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B95" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B96" s="3">
         <v>0.05</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>82</v>
@@ -6142,18 +6154,18 @@
         <v>81</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B97" s="3">
         <v>72.260000000000005</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>84</v>
@@ -6162,18 +6174,18 @@
         <v>83</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B98" s="3">
         <v>9.95E-7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>86</v>
@@ -6182,1579 +6194,1599 @@
         <v>85</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B99" s="3">
         <v>5.38E-10</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B100" s="3">
         <v>4.2500000000000003E-3</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B101" s="3">
         <v>0.6</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1">
       <c r="A102" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B102" s="3">
         <v>0.16</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B103" s="3">
         <v>0.75</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B104" s="3">
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B105" s="3">
         <v>2.5000000000000002E-6</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B106" s="3">
         <v>14</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>94</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B107" s="3">
         <v>55</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B108" s="3">
         <v>14</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B109" s="3">
         <v>55</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B110" s="3">
         <v>79200</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B111" s="3">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B112" s="3">
         <v>0.05</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B113" s="3">
         <v>10000</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B114" s="3">
         <v>4000</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B115" s="3">
         <v>0.05</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B116" s="3">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>307</v>
+        <v>795</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>104</v>
+        <v>794</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>793</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>388</v>
+        <v>796</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B117" s="3">
-        <v>0.32</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>310</v>
+        <v>105</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B118" s="3">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B119" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B120" s="3">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>105</v>
+        <v>309</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>388</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B121" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>388</v>
+        <v>109</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B122" s="3">
-        <v>155.69999999999999</v>
+        <v>9</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B123" s="3">
-        <v>4.4999999999999999E-4</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B124" s="3">
-        <v>0.2</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>388</v>
+        <v>112</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B125" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B126" s="3">
         <v>0.5</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>663</v>
+        <v>422</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B127" s="3">
-        <v>2.35</v>
+        <v>0.5</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="E127" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B128" s="3">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>239</v>
+        <v>322</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>388</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B132" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B133" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B134" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>326</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B135" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B136" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B137" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>337</v>
+        <v>180</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>736</v>
+        <v>335</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>738</v>
+        <v>336</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B141" s="3">
         <v>0</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>337</v>
+        <v>736</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B142" s="3">
         <v>0</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>338</v>
+        <v>742</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>126</v>
+        <v>336</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B143" s="3">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B144" s="3">
-        <v>1.5E-3</v>
+        <v>-10</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>388</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B145" s="3">
-        <v>1</v>
+        <v>1.5E-3</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D145" s="3">
-        <v>1</v>
+        <v>340</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B146" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D146" s="3">
-        <v>1</v>
+        <v>341</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D147" s="3">
-        <v>1</v>
+        <v>342</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B148" s="3">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>132</v>
+        <v>797</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B149" s="3">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D149" s="3">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B150" s="3">
-        <v>11.211</v>
+        <v>0</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>151</v>
+        <v>395</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B151" s="3">
-        <v>0.93913400000000002</v>
+        <v>11.211</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B152" s="3">
-        <v>4.9580299999999996E-4</v>
+        <v>0.93913400000000002</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B153" s="3">
-        <v>11024.02</v>
+        <v>4.9580299999999996E-4</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B154" s="3">
-        <v>16</v>
+        <v>11024.02</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>348</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>658</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B155" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B156" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B157" s="3">
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B158" s="3">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B159" s="3">
-        <v>1970.5340000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B160" s="3">
-        <v>13507.5</v>
+        <v>1970.5340000000001</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B161" s="3">
-        <v>0.96</v>
+        <v>13507.5</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B162" s="3">
-        <v>4926.335</v>
+        <v>0.96</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B163" s="3">
-        <v>15</v>
+        <v>4926.335</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>388</v>
+        <v>147</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B164" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B165" s="3">
-        <v>0.43</v>
+        <v>40</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>466</v>
+        <v>355</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B166" s="3">
-        <v>1.59</v>
+        <v>0.43</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B167" s="3">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B168" s="3">
-        <v>439.166</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>468</v>
+        <v>0</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B169" s="3">
-        <v>39.118099999999998</v>
+        <v>439.166</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B170" s="3">
-        <v>23.607700000000001</v>
+        <v>39.118099999999998</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B171" s="3">
-        <v>25.084099999999999</v>
+        <v>23.607700000000001</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B172" s="3">
-        <v>123.08</v>
+        <v>25.084099999999999</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B173" s="3">
-        <v>248167</v>
+        <v>123.08</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B174" s="3">
-        <v>10</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D174" s="3">
-        <v>100</v>
+        <v>248167</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B175" s="3">
-        <v>2.1269200000000001</v>
+        <v>10</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D175" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B176" s="3">
+        <v>2.1269200000000001</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D176" s="3">
+        <v>15</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>675</v>
+      </c>
+      <c r="B177" s="3">
         <v>0</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D176" s="3">
+      <c r="C177" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D177" s="3">
         <v>1</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>438</v>
+      <c r="E177" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -7779,106 +7811,106 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4">
         <v>0.1</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B7">
         <v>0.21299999999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B9">
         <v>0.05</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B10">
         <v>0.21299999999999999</v>
@@ -7886,7 +7918,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -7894,18 +7926,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B12">
         <v>0.1</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B13">
         <v>0.32</v>
@@ -7913,18 +7945,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B14">
         <v>1.5</v>
       </c>
       <c r="C14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15">
         <v>0.15</v>
@@ -7932,7 +7964,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B16">
         <v>0.21299999999999999</v>
@@ -7940,7 +7972,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7948,7 +7980,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B18">
         <v>0.1</v>
@@ -7956,7 +7988,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B19">
         <v>4.1000000000000002E-2</v>
@@ -7964,7 +7996,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B20">
         <v>0.1</v>
@@ -7972,7 +8004,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B21">
         <v>0.05</v>
@@ -7980,29 +8012,29 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B22">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B23">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B24">
         <v>0.55000000000000004</v>
@@ -8010,17 +8042,17 @@
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="C28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="C29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -8047,893 +8079,893 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>678</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>510</v>
-      </c>
       <c r="D3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>513</v>
-      </c>
       <c r="D4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>515</v>
-      </c>
       <c r="D5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>516</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>518</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>521</v>
-      </c>
       <c r="D8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>522</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="D10" t="s">
         <v>616</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="D10" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>525</v>
-      </c>
       <c r="D11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>527</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>619</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>530</v>
-      </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>532</v>
-      </c>
       <c r="D15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>532</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>534</v>
-      </c>
       <c r="D16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>535</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>541</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>542</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>620</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>622</v>
-      </c>
       <c r="D24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>544</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>545</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>546</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>549</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>551</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>552</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>554</v>
-      </c>
       <c r="D29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>556</v>
-      </c>
       <c r="D30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>559</v>
-      </c>
       <c r="D32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>559</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>561</v>
-      </c>
       <c r="D33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>562</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>563</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>565</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>566</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>570</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>572</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>574</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>576</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="16" t="s">
         <v>578</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>580</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>581</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>583</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>584</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>586</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>588</v>
-      </c>
       <c r="D49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>588</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>589</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>590</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>591</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>592</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>593</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>594</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>595</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>596</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>597</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" s="16"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
+        <v>599</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>600</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C57" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D57" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>629</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" t="s">
         <v>630</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C58" t="s">
-        <v>631</v>
-      </c>
       <c r="D58" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>632</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" t="s">
         <v>633</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C59" t="s">
-        <v>634</v>
-      </c>
       <c r="D59" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>634</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" t="s">
         <v>635</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C60" t="s">
-        <v>636</v>
-      </c>
       <c r="D60" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>601</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>602</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>636</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" t="s">
         <v>637</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C62" t="s">
-        <v>638</v>
-      </c>
       <c r="D62" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D63" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D64" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D65" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
+        <v>689</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" t="s">
         <v>690</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C66" t="s">
-        <v>691</v>
-      </c>
       <c r="D66" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>604</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C69" t="s">
         <v>605</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="C69" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>606</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C70" t="s">
         <v>607</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="C70" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>608</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>609</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>611</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>613</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D74" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -8960,262 +8992,262 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>678</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>506</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
+        <v>711</v>
+      </c>
+      <c r="D19" t="s">
         <v>712</v>
-      </c>
-      <c r="D19" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -9240,43 +9272,43 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>678</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>506</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
         <v>733</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>734</v>
-      </c>
       <c r="D3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
